--- a/PRO1/step_2/time_series_example/res_line/loading_percent.xlsx
+++ b/PRO1/step_2/time_series_example/res_line/loading_percent.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.46124343217372</v>
+        <v>24.41729456611474</v>
       </c>
       <c r="C2">
-        <v>33.5257031102883</v>
+        <v>24.7130007774952</v>
       </c>
       <c r="D2">
-        <v>13.42371053177895</v>
+        <v>9.669941133034882</v>
       </c>
       <c r="E2">
-        <v>10.02722078309339</v>
+        <v>7.227954257342625</v>
       </c>
       <c r="F2">
-        <v>4.437267612902121</v>
+        <v>3.136299808237317</v>
       </c>
       <c r="G2">
-        <v>0.6281132818938523</v>
+        <v>0.5663089681443848</v>
       </c>
       <c r="H2">
-        <v>11.49460814770435</v>
+        <v>8.559130723502484</v>
       </c>
       <c r="I2">
-        <v>6.977563200345487</v>
+        <v>5.010359108096975</v>
       </c>
       <c r="J2">
-        <v>2.598214618726241</v>
+        <v>1.880750348452317</v>
       </c>
       <c r="K2">
-        <v>16.45517101911757</v>
+        <v>12.22317936086831</v>
       </c>
       <c r="L2">
-        <v>3.346511168026843</v>
+        <v>2.588592830902614</v>
       </c>
       <c r="M2">
-        <v>3.175699119956327</v>
+        <v>2.438578603449553</v>
       </c>
       <c r="N2">
-        <v>0.08805418639741894</v>
+        <v>0.09146925308280977</v>
       </c>
       <c r="O2">
-        <v>0.179565817273806</v>
+        <v>0.1866036376375605</v>
       </c>
       <c r="P2">
-        <v>0.03751812229026775</v>
+        <v>0.03834325258243793</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.04974473414273</v>
+        <v>23.46000955147894</v>
       </c>
       <c r="C3">
-        <v>32.11160654285921</v>
+        <v>23.74511477237742</v>
       </c>
       <c r="D3">
-        <v>12.86522468378315</v>
+        <v>9.294838700609583</v>
       </c>
       <c r="E3">
-        <v>9.609748274698488</v>
+        <v>6.947675055307196</v>
       </c>
       <c r="F3">
-        <v>4.257872859669157</v>
+        <v>3.015364120694742</v>
       </c>
       <c r="G3">
-        <v>0.6030816681000013</v>
+        <v>0.561351778651181</v>
       </c>
       <c r="H3">
-        <v>11.01981299177607</v>
+        <v>8.223941596921922</v>
       </c>
       <c r="I3">
-        <v>6.690953854908748</v>
+        <v>4.816284527289891</v>
       </c>
       <c r="J3">
-        <v>2.489946592424973</v>
+        <v>1.808192297415996</v>
       </c>
       <c r="K3">
-        <v>15.76300533556125</v>
+        <v>11.74242925403266</v>
       </c>
       <c r="L3">
-        <v>3.215482359114701</v>
+        <v>2.490052423413305</v>
       </c>
       <c r="M3">
-        <v>3.052421128867921</v>
+        <v>2.346124907198961</v>
       </c>
       <c r="N3">
-        <v>0.08828576369250875</v>
+        <v>0.09156404834294227</v>
       </c>
       <c r="O3">
-        <v>0.180047814616886</v>
+        <v>0.1868034997248725</v>
       </c>
       <c r="P3">
-        <v>0.03756391889590414</v>
+        <v>0.03835706626866398</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.59948373131211</v>
+        <v>22.47411316294947</v>
       </c>
       <c r="C4">
-        <v>30.65816348466636</v>
+        <v>22.74730968258704</v>
       </c>
       <c r="D4">
-        <v>12.29111861635923</v>
+        <v>8.908029795368948</v>
       </c>
       <c r="E4">
-        <v>9.180611649364485</v>
+        <v>6.658655998943197</v>
       </c>
       <c r="F4">
-        <v>4.073452951778663</v>
+        <v>2.890614800711715</v>
       </c>
       <c r="G4">
-        <v>0.5773492206443265</v>
+        <v>0.5569173350997272</v>
       </c>
       <c r="H4">
-        <v>10.53179098445196</v>
+        <v>7.878262205836018</v>
       </c>
       <c r="I4">
-        <v>6.396361817545775</v>
+        <v>4.616131385916988</v>
       </c>
       <c r="J4">
-        <v>2.378674648153678</v>
+        <v>1.733382925921006</v>
       </c>
       <c r="K4">
-        <v>15.05161925784138</v>
+        <v>11.24678944866609</v>
       </c>
       <c r="L4">
-        <v>3.080370292977593</v>
+        <v>2.388260238101967</v>
       </c>
       <c r="M4">
-        <v>2.92529942294745</v>
+        <v>2.250616183785658</v>
       </c>
       <c r="N4">
-        <v>0.0885239519804578</v>
+        <v>0.09166169331184479</v>
       </c>
       <c r="O4">
-        <v>0.180543564271477</v>
+        <v>0.1870093783388703</v>
       </c>
       <c r="P4">
-        <v>0.03761111038883104</v>
+        <v>0.03837129801119537</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.59222375430434</v>
+        <v>22.46917207747605</v>
       </c>
       <c r="C5">
-        <v>30.650886140543</v>
+        <v>22.7423061489791</v>
       </c>
       <c r="D5">
-        <v>12.28824386632406</v>
+        <v>8.906089817665022</v>
       </c>
       <c r="E5">
-        <v>9.178462843543324</v>
+        <v>6.657206489975616</v>
       </c>
       <c r="F5">
-        <v>4.07252947243362</v>
+        <v>2.889989030292952</v>
       </c>
       <c r="G5">
-        <v>0.5772203666901142</v>
+        <v>0.5568968573725767</v>
       </c>
       <c r="H5">
-        <v>10.52934741634821</v>
+        <v>7.876528418584031</v>
       </c>
       <c r="I5">
-        <v>6.394886772866447</v>
+        <v>4.615127485022954</v>
       </c>
       <c r="J5">
-        <v>2.378117533297063</v>
+        <v>1.733007766170476</v>
       </c>
       <c r="K5">
-        <v>15.04805746401063</v>
+        <v>11.24430395664698</v>
       </c>
       <c r="L5">
-        <v>3.079692669772218</v>
+        <v>2.387749260054035</v>
       </c>
       <c r="M5">
-        <v>2.924661867853182</v>
+        <v>2.250136736064511</v>
       </c>
       <c r="N5">
-        <v>0.08852514502483666</v>
+        <v>0.09166218278304002</v>
       </c>
       <c r="O5">
-        <v>0.1805460473721099</v>
+        <v>0.1870104103371071</v>
       </c>
       <c r="P5">
-        <v>0.03761134698524712</v>
+        <v>0.03837136935653518</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.66516064952732</v>
+        <v>21.83778285499178</v>
       </c>
       <c r="C6">
-        <v>29.72147726970427</v>
+        <v>22.10269345415224</v>
       </c>
       <c r="D6">
-        <v>11.92108297540071</v>
+        <v>8.658071318662683</v>
       </c>
       <c r="E6">
-        <v>8.904021589902779</v>
+        <v>6.471894179286545</v>
       </c>
       <c r="F6">
-        <v>3.954581028589842</v>
+        <v>2.809976949790875</v>
       </c>
       <c r="G6">
-        <v>0.5607629684553725</v>
+        <v>0.5544256133607141</v>
       </c>
       <c r="H6">
-        <v>10.2172667394102</v>
+        <v>7.654862172855889</v>
       </c>
       <c r="I6">
-        <v>6.206501341601987</v>
+        <v>4.486776684234757</v>
       </c>
       <c r="J6">
-        <v>2.306968400421497</v>
+        <v>1.68504802865224</v>
       </c>
       <c r="K6">
-        <v>14.59317843270796</v>
+        <v>10.92657026193905</v>
       </c>
       <c r="L6">
-        <v>2.99306009302693</v>
+        <v>2.322384199330575</v>
       </c>
       <c r="M6">
-        <v>2.843151394708145</v>
+        <v>2.188804062104941</v>
       </c>
       <c r="N6">
-        <v>0.0886775475317364</v>
+        <v>0.09172473548719515</v>
       </c>
       <c r="O6">
-        <v>0.1808632440646072</v>
+        <v>0.1871423035260872</v>
       </c>
       <c r="P6">
-        <v>0.0376415884229668</v>
+        <v>0.038380487824651</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.38842814658523</v>
+        <v>22.33044941217946</v>
       </c>
       <c r="C7">
-        <v>30.4465967981696</v>
+        <v>22.60181851010904</v>
       </c>
       <c r="D7">
-        <v>12.20754306021459</v>
+        <v>8.851618457877377</v>
       </c>
       <c r="E7">
-        <v>9.118141077274402</v>
+        <v>6.616506764768117</v>
       </c>
       <c r="F7">
-        <v>4.046605183364327</v>
+        <v>2.872417959431005</v>
       </c>
       <c r="G7">
-        <v>0.5736031289632653</v>
+        <v>0.556329126548702</v>
       </c>
       <c r="H7">
-        <v>10.46075136260121</v>
+        <v>7.827846131134635</v>
       </c>
       <c r="I7">
-        <v>6.353479198823218</v>
+        <v>4.586939326953865</v>
       </c>
       <c r="J7">
-        <v>2.362478295955877</v>
+        <v>1.722474050059788</v>
       </c>
       <c r="K7">
-        <v>14.94807125386339</v>
+        <v>11.17451674462817</v>
       </c>
       <c r="L7">
-        <v>3.060665973956191</v>
+        <v>2.373399882830652</v>
       </c>
       <c r="M7">
-        <v>2.906760202805312</v>
+        <v>2.236672750023604</v>
       </c>
       <c r="N7">
-        <v>0.0885586377510551</v>
+        <v>0.09167592467452211</v>
       </c>
       <c r="O7">
-        <v>0.1806157563322524</v>
+        <v>0.1870393850171574</v>
       </c>
       <c r="P7">
-        <v>0.03761798991585756</v>
+        <v>0.03837337245550104</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.139220886721</v>
+        <v>23.52076042694027</v>
       </c>
       <c r="C8">
-        <v>32.20126124488384</v>
+        <v>23.80656527099971</v>
       </c>
       <c r="D8">
-        <v>12.90063529572354</v>
+        <v>9.318656760754052</v>
       </c>
       <c r="E8">
-        <v>9.636217639387567</v>
+        <v>6.965471876819267</v>
       </c>
       <c r="F8">
-        <v>4.269247516851038</v>
+        <v>3.02304429610344</v>
       </c>
       <c r="G8">
-        <v>0.6046688058769287</v>
+        <v>0.5616474929362393</v>
       </c>
       <c r="H8">
-        <v>11.04991568856648</v>
+        <v>8.245226022708456</v>
       </c>
       <c r="I8">
-        <v>6.7091252445885</v>
+        <v>4.828608338657983</v>
       </c>
       <c r="J8">
-        <v>2.496810605196696</v>
+        <v>1.812799184788349</v>
       </c>
       <c r="K8">
-        <v>15.80688798184209</v>
+        <v>11.77295254110316</v>
       </c>
       <c r="L8">
-        <v>3.223802127120559</v>
+        <v>2.496314463060218</v>
       </c>
       <c r="M8">
-        <v>3.06024880652214</v>
+        <v>2.352000259834268</v>
       </c>
       <c r="N8">
-        <v>0.08827107682214358</v>
+        <v>0.09155803220047032</v>
       </c>
       <c r="O8">
-        <v>0.1800172460654277</v>
+        <v>0.1867908153376736</v>
       </c>
       <c r="P8">
-        <v>0.03756101192506497</v>
+        <v>0.03835618950888753</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.01584080028124</v>
+        <v>26.81732526966125</v>
       </c>
       <c r="C9">
-        <v>37.08506167710227</v>
+        <v>27.13613917839625</v>
       </c>
       <c r="D9">
-        <v>14.82914775990241</v>
+        <v>10.60862659691567</v>
       </c>
       <c r="E9">
-        <v>11.07784614245799</v>
+        <v>7.929374481113547</v>
       </c>
       <c r="F9">
-        <v>4.888699054572768</v>
+        <v>3.438802987311577</v>
       </c>
       <c r="G9">
-        <v>0.6911048711971814</v>
+        <v>0.5814321546847733</v>
       </c>
       <c r="H9">
-        <v>12.68967907745024</v>
+        <v>9.397851624895116</v>
       </c>
       <c r="I9">
-        <v>7.698977284273353</v>
+        <v>5.495963903296213</v>
       </c>
       <c r="J9">
-        <v>2.870773306527492</v>
+        <v>2.062376715721055</v>
       </c>
       <c r="K9">
-        <v>18.19757252698603</v>
+        <v>13.42666975891055</v>
       </c>
       <c r="L9">
-        <v>3.674466180549012</v>
+        <v>2.834469772805559</v>
       </c>
       <c r="M9">
-        <v>3.484247848929509</v>
+        <v>2.669253901045321</v>
       </c>
       <c r="N9">
-        <v>0.08747198299386091</v>
+        <v>0.09123155388391183</v>
       </c>
       <c r="O9">
-        <v>0.1783540055582246</v>
+        <v>0.186102517661942</v>
       </c>
       <c r="P9">
-        <v>0.03740336147326311</v>
+        <v>0.03830862752055457</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>53.65837263563047</v>
+        <v>38.46374027931029</v>
       </c>
       <c r="C10">
-        <v>54.72973916054297</v>
+        <v>38.85228632978724</v>
       </c>
       <c r="D10">
-        <v>21.79149411917802</v>
+        <v>15.14203768523547</v>
       </c>
       <c r="E10">
-        <v>16.28352208286324</v>
+        <v>11.31735243287397</v>
       </c>
       <c r="F10">
-        <v>7.125288344880137</v>
+        <v>4.898203853184497</v>
       </c>
       <c r="G10">
-        <v>1.003239434720809</v>
+        <v>0.78394614300873</v>
       </c>
       <c r="H10">
-        <v>18.61594780291382</v>
+        <v>13.44850332622377</v>
       </c>
       <c r="I10">
-        <v>11.2768496374541</v>
+        <v>7.841115494595645</v>
       </c>
       <c r="J10">
-        <v>4.223069469068991</v>
+        <v>2.940444629637796</v>
       </c>
       <c r="K10">
-        <v>26.83982040822021</v>
+        <v>19.24542709620144</v>
       </c>
       <c r="L10">
-        <v>5.260892390221172</v>
+        <v>4.008217670210209</v>
       </c>
       <c r="M10">
-        <v>4.976739210196117</v>
+        <v>3.770270921168508</v>
       </c>
       <c r="N10">
-        <v>0.08459982107511692</v>
+        <v>0.09007322033115503</v>
       </c>
       <c r="O10">
-        <v>0.1723750760798754</v>
+        <v>0.1836611791159541</v>
       </c>
       <c r="P10">
-        <v>0.03684548694707272</v>
+        <v>0.03814022957118988</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70.23901897936022</v>
+        <v>48.95158314120999</v>
       </c>
       <c r="C11">
-        <v>71.2977223856673</v>
+        <v>49.37333519707572</v>
       </c>
       <c r="D11">
-        <v>28.32340432775935</v>
+        <v>19.20862625030737</v>
       </c>
       <c r="E11">
-        <v>21.16892243893352</v>
+        <v>14.35696824091402</v>
       </c>
       <c r="F11">
-        <v>9.22479551008081</v>
+        <v>6.206457813113524</v>
       </c>
       <c r="G11">
-        <v>1.296330920251658</v>
+        <v>0.9925632775510929</v>
       </c>
       <c r="H11">
-        <v>24.1865212884978</v>
+        <v>17.08401004517371</v>
       </c>
       <c r="I11">
-        <v>14.64089786841951</v>
+        <v>9.945978466998548</v>
       </c>
       <c r="J11">
-        <v>5.494978238978327</v>
+        <v>3.729219747270621</v>
       </c>
       <c r="K11">
-        <v>34.96315978354711</v>
+        <v>24.47196053029975</v>
       </c>
       <c r="L11">
-        <v>6.689214451357449</v>
+        <v>5.04228919518894</v>
       </c>
       <c r="M11">
-        <v>6.320484650931739</v>
+        <v>4.740170802522734</v>
       </c>
       <c r="N11">
-        <v>0.08192487626160941</v>
+        <v>0.08901894516494821</v>
       </c>
       <c r="O11">
-        <v>0.1668054230054138</v>
+        <v>0.1814400571088124</v>
       </c>
       <c r="P11">
-        <v>0.03633935244744308</v>
+        <v>0.03798760675422943</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>99.69867610509408</v>
+        <v>66.37251847674915</v>
       </c>
       <c r="C12">
-        <v>100.72294992997</v>
+        <v>66.82465519040231</v>
       </c>
       <c r="D12">
-        <v>39.91218085383097</v>
+        <v>25.94829473867527</v>
       </c>
       <c r="E12">
-        <v>29.84053965132243</v>
+        <v>19.39554618784506</v>
       </c>
       <c r="F12">
-        <v>12.95400178831949</v>
+        <v>8.37452120073138</v>
       </c>
       <c r="G12">
-        <v>1.817187621447028</v>
+        <v>1.338414043823069</v>
       </c>
       <c r="H12">
-        <v>34.09985301374933</v>
+        <v>23.1160215496991</v>
       </c>
       <c r="I12">
-        <v>20.63031996640778</v>
+        <v>13.438755617976</v>
       </c>
       <c r="J12">
-        <v>7.760046718751807</v>
+        <v>5.038711405679934</v>
       </c>
       <c r="K12">
-        <v>49.41438522471619</v>
+        <v>33.14627076381538</v>
       </c>
       <c r="L12">
-        <v>9.070031385809205</v>
+        <v>6.716446375327265</v>
       </c>
       <c r="M12">
-        <v>8.560425682819444</v>
+        <v>6.310398413778423</v>
       </c>
       <c r="N12">
-        <v>0.07723471210496401</v>
+        <v>0.0872402066884756</v>
       </c>
       <c r="O12">
-        <v>0.157036147864814</v>
+        <v>0.1776943719265643</v>
       </c>
       <c r="P12">
-        <v>0.0354877357828401</v>
+        <v>0.03773206023550761</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>125.7803703494156</v>
+        <v>80.40159078181016</v>
       </c>
       <c r="C13">
-        <v>126.7694214219903</v>
+        <v>80.8674479887257</v>
       </c>
       <c r="D13">
-        <v>50.15640344838705</v>
+        <v>31.36753577692677</v>
       </c>
       <c r="E13">
-        <v>37.51094721067663</v>
+        <v>23.44780947372481</v>
       </c>
       <c r="F13">
-        <v>16.25622230106322</v>
+        <v>10.11826211354344</v>
       </c>
       <c r="G13">
-        <v>2.278741045904906</v>
+        <v>1.616708641409537</v>
       </c>
       <c r="H13">
-        <v>42.90072079935668</v>
+        <v>27.97356894099379</v>
       </c>
       <c r="I13">
-        <v>25.95118588045835</v>
+        <v>16.2519393132312</v>
       </c>
       <c r="J13">
-        <v>9.772707937403858</v>
+        <v>6.093709469774429</v>
       </c>
       <c r="K13">
-        <v>62.23612394764364</v>
+        <v>40.13186964803097</v>
       </c>
       <c r="L13">
-        <v>10.99843431377617</v>
+        <v>8.02540806770577</v>
       </c>
       <c r="M13">
-        <v>10.37485793587918</v>
+        <v>7.538119742537395</v>
       </c>
       <c r="N13">
-        <v>0.07316006223479922</v>
+        <v>0.08578259499973734</v>
       </c>
       <c r="O13">
-        <v>0.1485442853648269</v>
+        <v>0.1746263252461744</v>
       </c>
       <c r="P13">
-        <v>0.03479085404172012</v>
+        <v>0.03752500761631224</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>128.3543249372287</v>
+        <v>81.71167378901158</v>
       </c>
       <c r="C14">
-        <v>129.3397986361759</v>
+        <v>82.17851766941212</v>
       </c>
       <c r="D14">
-        <v>51.16656930880323</v>
+        <v>31.8733180782596</v>
       </c>
       <c r="E14">
-        <v>38.26758989714759</v>
+        <v>23.82604930791742</v>
       </c>
       <c r="F14">
-        <v>16.58217907685339</v>
+        <v>10.28103763890267</v>
       </c>
       <c r="G14">
-        <v>2.324319783458504</v>
+        <v>1.642693495600508</v>
       </c>
       <c r="H14">
-        <v>43.77072771597227</v>
+        <v>28.42729023682941</v>
       </c>
       <c r="I14">
-        <v>26.47738436517389</v>
+        <v>16.51472965491459</v>
       </c>
       <c r="J14">
-        <v>9.971767101921603</v>
+        <v>6.192270072225617</v>
       </c>
       <c r="K14">
-        <v>63.50314011702459</v>
+        <v>40.78433692755177</v>
       </c>
       <c r="L14">
-        <v>11.17911197860491</v>
+        <v>8.145825710117091</v>
       </c>
       <c r="M14">
-        <v>10.54486448368844</v>
+        <v>7.651065352620505</v>
       </c>
       <c r="N14">
-        <v>0.0727624042613631</v>
+        <v>0.08564535834142034</v>
       </c>
       <c r="O14">
-        <v>0.147715263414499</v>
+        <v>0.1743375217989335</v>
       </c>
       <c r="P14">
-        <v>0.03472524373688667</v>
+        <v>0.03750564128589189</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>126.2566337987909</v>
+        <v>80.64502507556864</v>
       </c>
       <c r="C15">
-        <v>127.2450238105225</v>
+        <v>81.11106876392881</v>
       </c>
       <c r="D15">
-        <v>50.34332767291846</v>
+        <v>31.46152158148978</v>
       </c>
       <c r="E15">
-        <v>37.65095478725101</v>
+        <v>23.51809449387961</v>
       </c>
       <c r="F15">
-        <v>16.31653362292327</v>
+        <v>10.14850905410495</v>
       </c>
       <c r="G15">
-        <v>2.287174132994605</v>
+        <v>1.621537059667434</v>
       </c>
       <c r="H15">
-        <v>43.06167853561714</v>
+        <v>28.05787580901967</v>
       </c>
       <c r="I15">
-        <v>26.04853355612098</v>
+        <v>16.30076859846176</v>
       </c>
       <c r="J15">
-        <v>9.80953396889271</v>
+        <v>6.112022990857682</v>
       </c>
       <c r="K15">
-        <v>62.47053818461153</v>
+        <v>40.25310636820436</v>
       </c>
       <c r="L15">
-        <v>11.031998933926</v>
+        <v>8.047807323711357</v>
       </c>
       <c r="M15">
-        <v>10.40644007846988</v>
+        <v>7.559129078685078</v>
       </c>
       <c r="N15">
-        <v>0.07308641918967768</v>
+        <v>0.08575710848519526</v>
       </c>
       <c r="O15">
-        <v>0.148390761170287</v>
+        <v>0.1745726902187466</v>
       </c>
       <c r="P15">
-        <v>0.03477866963418692</v>
+        <v>0.03752140928483026</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>126.1938802481746</v>
+        <v>80.61297611028536</v>
       </c>
       <c r="C16">
-        <v>127.1823573937005</v>
+        <v>81.07899533221197</v>
       </c>
       <c r="D16">
-        <v>50.31869841305651</v>
+        <v>31.44914811615777</v>
       </c>
       <c r="E16">
-        <v>37.63250719541057</v>
+        <v>23.5088412827291</v>
       </c>
       <c r="F16">
-        <v>16.30858684194411</v>
+        <v>10.14452695770055</v>
       </c>
       <c r="G16">
-        <v>2.286062959678092</v>
+        <v>1.620901382262358</v>
       </c>
       <c r="H16">
-        <v>43.04046984274567</v>
+        <v>28.04677647388661</v>
       </c>
       <c r="I16">
-        <v>26.03570640563103</v>
+        <v>16.29434002052207</v>
       </c>
       <c r="J16">
-        <v>9.804681529140156</v>
+        <v>6.109611937144082</v>
       </c>
       <c r="K16">
-        <v>62.43965062641047</v>
+        <v>40.2371450827602</v>
       </c>
       <c r="L16">
-        <v>11.02757982370854</v>
+        <v>8.044859002632009</v>
       </c>
       <c r="M16">
-        <v>10.40228197829469</v>
+        <v>7.556363706361124</v>
       </c>
       <c r="N16">
-        <v>0.07309612093224847</v>
+        <v>0.08576046425001221</v>
       </c>
       <c r="O16">
-        <v>0.1484109865573593</v>
+        <v>0.1745797522149164</v>
       </c>
       <c r="P16">
-        <v>0.03478027393729058</v>
+        <v>0.03752188302346674</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>125.9216411599574</v>
+        <v>80.47384754784676</v>
       </c>
       <c r="C17">
-        <v>126.9104961939765</v>
+        <v>80.93976025909649</v>
       </c>
       <c r="D17">
-        <v>50.21185006013415</v>
+        <v>31.39543303785884</v>
       </c>
       <c r="E17">
-        <v>37.55247693332019</v>
+        <v>23.46867174431154</v>
       </c>
       <c r="F17">
-        <v>16.2741119935759</v>
+        <v>10.1272401166724</v>
       </c>
       <c r="G17">
-        <v>2.281242475675505</v>
+        <v>1.618141825359006</v>
       </c>
       <c r="H17">
-        <v>42.94846361389583</v>
+        <v>27.99859303006372</v>
       </c>
       <c r="I17">
-        <v>25.98006072575053</v>
+        <v>16.26643287881156</v>
       </c>
       <c r="J17">
-        <v>9.78363110217359</v>
+        <v>6.099145305542026</v>
       </c>
       <c r="K17">
-        <v>62.30565553615959</v>
+        <v>40.16785533185801</v>
       </c>
       <c r="L17">
-        <v>11.00839665975656</v>
+        <v>8.032057799483598</v>
       </c>
       <c r="M17">
-        <v>10.38423185628404</v>
+        <v>7.544356843653581</v>
       </c>
       <c r="N17">
-        <v>0.07313821501015333</v>
+        <v>0.08577503070232656</v>
       </c>
       <c r="O17">
-        <v>0.1484987404639161</v>
+        <v>0.1746104065566156</v>
       </c>
       <c r="P17">
-        <v>0.03478723776946467</v>
+        <v>0.03752393956249981</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100.8123195344324</v>
+        <v>66.99901248594253</v>
       </c>
       <c r="C18">
-        <v>101.8351453616133</v>
+        <v>67.45191166078462</v>
       </c>
       <c r="D18">
-        <v>40.34989229916844</v>
+        <v>26.19043182487646</v>
       </c>
       <c r="E18">
-        <v>30.1681789462482</v>
+        <v>19.57658932554658</v>
       </c>
       <c r="F18">
-        <v>13.09498056818943</v>
+        <v>8.452421994473005</v>
       </c>
       <c r="G18">
-        <v>1.836885423656911</v>
+        <v>1.35084409522252</v>
       </c>
       <c r="H18">
-        <v>34.47512181184733</v>
+        <v>23.33291503930783</v>
       </c>
       <c r="I18">
-        <v>20.85712845236694</v>
+        <v>13.56435706824299</v>
       </c>
       <c r="J18">
-        <v>7.845831199134909</v>
+        <v>5.085809954986995</v>
       </c>
       <c r="K18">
-        <v>49.96126891570505</v>
+        <v>33.45818911570193</v>
       </c>
       <c r="L18">
-        <v>9.155913927194703</v>
+        <v>6.775652413137998</v>
       </c>
       <c r="M18">
-        <v>8.641229661675052</v>
+        <v>6.365929254286767</v>
       </c>
       <c r="N18">
-        <v>0.07705914183546718</v>
+        <v>0.08717558907547554</v>
       </c>
       <c r="O18">
-        <v>0.1566703443375074</v>
+        <v>0.1775583366035313</v>
       </c>
       <c r="P18">
-        <v>0.03545683307810889</v>
+        <v>0.03772283212203766</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>62.08603520590786</v>
+        <v>43.85305538449008</v>
       </c>
       <c r="C19">
-        <v>63.15196911745126</v>
+        <v>44.26078888569191</v>
       </c>
       <c r="D19">
-        <v>25.11256606918142</v>
+        <v>17.23291344818006</v>
       </c>
       <c r="E19">
-        <v>18.76725235529868</v>
+        <v>12.88014498991889</v>
       </c>
       <c r="F19">
-        <v>8.192572616653823</v>
+        <v>5.570896832731147</v>
       </c>
       <c r="G19">
-        <v>1.152220707771201</v>
+        <v>0.8912089355167061</v>
       </c>
       <c r="H19">
-        <v>21.44684265760502</v>
+        <v>15.31740834101461</v>
       </c>
       <c r="I19">
-        <v>12.98628994363867</v>
+        <v>8.923145370696439</v>
       </c>
       <c r="J19">
-        <v>4.869354232600549</v>
+        <v>3.345873490403399</v>
       </c>
       <c r="K19">
-        <v>30.96816047135554</v>
+        <v>21.93196919202197</v>
       </c>
       <c r="L19">
-        <v>5.994572012442071</v>
+        <v>4.542111995654506</v>
       </c>
       <c r="M19">
-        <v>5.66697128907093</v>
+        <v>4.271038536251261</v>
       </c>
       <c r="N19">
-        <v>0.08323723453643586</v>
+        <v>0.08953296350994047</v>
       </c>
       <c r="O19">
-        <v>0.1695381240934363</v>
+        <v>0.1825228772284951</v>
       </c>
       <c r="P19">
-        <v>0.03658595642898495</v>
+        <v>0.03806192854285685</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>52.82207569549902</v>
+        <v>37.92254266650642</v>
       </c>
       <c r="C20">
-        <v>53.89382863985303</v>
+        <v>38.30884071809291</v>
       </c>
       <c r="D20">
-        <v>21.46180410665536</v>
+        <v>14.93189466908257</v>
       </c>
       <c r="E20">
-        <v>16.03697813706506</v>
+        <v>11.16029102464109</v>
       </c>
       <c r="F20">
-        <v>7.019355210734528</v>
+        <v>4.83058683969181</v>
       </c>
       <c r="G20">
-        <v>0.9884535713642914</v>
+        <v>0.7731650930494109</v>
       </c>
       <c r="H20">
-        <v>18.3350691529348</v>
+        <v>13.26070231287029</v>
       </c>
       <c r="I20">
-        <v>11.10725392124743</v>
+        <v>7.732386822921288</v>
       </c>
       <c r="J20">
-        <v>4.158955585098685</v>
+        <v>2.899712248358831</v>
       </c>
       <c r="K20">
-        <v>26.43019977222627</v>
+        <v>18.97550679646703</v>
       </c>
       <c r="L20">
-        <v>5.18723164942929</v>
+        <v>3.954299956042873</v>
       </c>
       <c r="M20">
-        <v>4.90744075404762</v>
+        <v>3.719697706558499</v>
       </c>
       <c r="N20">
-        <v>0.08473536143359239</v>
+        <v>0.09012730672701348</v>
       </c>
       <c r="O20">
-        <v>0.1726572579262691</v>
+        <v>0.1837751493923777</v>
       </c>
       <c r="P20">
-        <v>0.03687149038313813</v>
+        <v>0.03814807794253836</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>43.24097843605033</v>
+        <v>31.64324333305381</v>
       </c>
       <c r="C21">
-        <v>44.31429211757828</v>
+        <v>31.99748868125685</v>
       </c>
       <c r="D21">
-        <v>17.68255509738314</v>
+        <v>12.49051900686014</v>
       </c>
       <c r="E21">
-        <v>13.21110633139323</v>
+        <v>9.335697129951626</v>
       </c>
       <c r="F21">
-        <v>5.805231936728647</v>
+        <v>4.044850043724998</v>
       </c>
       <c r="G21">
-        <v>0.8190043963990818</v>
+        <v>0.6478925165482239</v>
       </c>
       <c r="H21">
-        <v>15.1171757379804</v>
+        <v>11.07921560633418</v>
       </c>
       <c r="I21">
-        <v>9.164431064173501</v>
+        <v>6.469408132071202</v>
       </c>
       <c r="J21">
-        <v>3.424573498575882</v>
+        <v>2.426706089979471</v>
       </c>
       <c r="K21">
-        <v>21.73739030193953</v>
+        <v>15.8409757994619</v>
       </c>
       <c r="L21">
-        <v>4.332401176371101</v>
+        <v>3.324425111684207</v>
       </c>
       <c r="M21">
-        <v>4.10323233329978</v>
+        <v>3.128873533642135</v>
       </c>
       <c r="N21">
-        <v>0.08629242489542271</v>
+        <v>0.09075284522031192</v>
       </c>
       <c r="O21">
-        <v>0.1758986955405676</v>
+        <v>0.1850934445949762</v>
       </c>
       <c r="P21">
-        <v>0.03717254605856249</v>
+        <v>0.03823895905222886</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.78341269568986</v>
+        <v>29.34301229713648</v>
       </c>
       <c r="C22">
-        <v>40.85552481286699</v>
+        <v>29.68189071665683</v>
       </c>
       <c r="D22">
-        <v>16.31753223987266</v>
+        <v>11.59430839595606</v>
       </c>
       <c r="E22">
-        <v>12.19055453406006</v>
+        <v>8.66595037957733</v>
       </c>
       <c r="F22">
-        <v>5.366769382981658</v>
+        <v>3.756289075640969</v>
       </c>
       <c r="G22">
-        <v>0.757816605231285</v>
+        <v>0.6018890697491556</v>
       </c>
       <c r="H22">
-        <v>13.95569253693103</v>
+        <v>10.27850278466141</v>
       </c>
       <c r="I22">
-        <v>8.463241239596133</v>
+        <v>6.005830452071453</v>
       </c>
       <c r="J22">
-        <v>3.159572545564175</v>
+        <v>2.253170080748336</v>
       </c>
       <c r="K22">
-        <v>20.04363045796334</v>
+        <v>14.69098379421946</v>
       </c>
       <c r="L22">
-        <v>4.018984000440913</v>
+        <v>3.091582721775387</v>
       </c>
       <c r="M22">
-        <v>3.808372008111187</v>
+        <v>2.910453540456662</v>
       </c>
       <c r="N22">
-        <v>0.08685629168999311</v>
+        <v>0.09098118902410358</v>
       </c>
       <c r="O22">
-        <v>0.1770724386329737</v>
+        <v>0.1855747480492503</v>
       </c>
       <c r="P22">
-        <v>0.03728259589881674</v>
+        <v>0.03827217939666978</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.62118448419089</v>
+        <v>28.56596592132577</v>
       </c>
       <c r="C23">
-        <v>39.69260240293828</v>
+        <v>28.89906649752068</v>
       </c>
       <c r="D23">
-        <v>15.85851139519815</v>
+        <v>11.29125696081428</v>
       </c>
       <c r="E23">
-        <v>11.84738469238473</v>
+        <v>8.439483558430078</v>
       </c>
       <c r="F23">
-        <v>5.219330437306264</v>
+        <v>3.658691588550302</v>
       </c>
       <c r="G23">
-        <v>0.7372420623347065</v>
+        <v>0.5947331187431136</v>
       </c>
       <c r="H23">
-        <v>13.5652041344425</v>
+        <v>10.00774590719459</v>
       </c>
       <c r="I23">
-        <v>8.227508961609342</v>
+        <v>5.849072764385886</v>
       </c>
       <c r="J23">
-        <v>3.070489454165687</v>
+        <v>2.194502280557568</v>
       </c>
       <c r="K23">
-        <v>19.47421501052511</v>
+        <v>14.3022089006858</v>
       </c>
       <c r="L23">
-        <v>3.913041679323359</v>
+        <v>3.012647709262128</v>
       </c>
       <c r="M23">
-        <v>3.708701536903034</v>
+        <v>2.836405551059966</v>
       </c>
       <c r="N23">
-        <v>0.08704607624147581</v>
+        <v>0.09105825001268573</v>
       </c>
       <c r="O23">
-        <v>0.177467482785274</v>
+        <v>0.1857371871186091</v>
       </c>
       <c r="P23">
-        <v>0.03731975521050514</v>
+        <v>0.03828339537738237</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.7682537448245</v>
+        <v>26.65067813951524</v>
       </c>
       <c r="C24">
-        <v>36.83721436940296</v>
+        <v>26.96802802740611</v>
       </c>
       <c r="D24">
-        <v>14.73129642870751</v>
+        <v>10.54351935452871</v>
       </c>
       <c r="E24">
-        <v>11.00469573481942</v>
+        <v>7.880722758621742</v>
       </c>
       <c r="F24">
-        <v>4.857269265925719</v>
+        <v>3.417826786366687</v>
       </c>
       <c r="G24">
-        <v>0.6867191538073547</v>
+        <v>0.5802621278956034</v>
       </c>
       <c r="H24">
-        <v>12.60646236282591</v>
+        <v>9.339680559971123</v>
       </c>
       <c r="I24">
-        <v>7.648742199139217</v>
+        <v>5.462284412587645</v>
       </c>
       <c r="J24">
-        <v>2.851792224991091</v>
+        <v>2.049776831700687</v>
       </c>
       <c r="K24">
-        <v>18.07623563325672</v>
+        <v>13.3431775785007</v>
       </c>
       <c r="L24">
-        <v>3.651715577020735</v>
+        <v>2.817448316022787</v>
       </c>
       <c r="M24">
-        <v>3.462843733784122</v>
+        <v>2.653285384453436</v>
       </c>
       <c r="N24">
-        <v>0.08751249204377429</v>
+        <v>0.09124806324452023</v>
       </c>
       <c r="O24">
-        <v>0.1784383235830574</v>
+        <v>0.1861373213177265</v>
       </c>
       <c r="P24">
-        <v>0.03741132881744894</v>
+        <v>0.03831103177508428</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.49767330601229</v>
+        <v>25.79421865729955</v>
       </c>
       <c r="C25">
-        <v>35.56514044349392</v>
+        <v>26.10373198358249</v>
       </c>
       <c r="D25">
-        <v>14.2290460900916</v>
+        <v>10.20875217660186</v>
       </c>
       <c r="E25">
-        <v>10.62923541112137</v>
+        <v>7.630569015968606</v>
       </c>
       <c r="F25">
-        <v>4.695946190048286</v>
+        <v>3.30995975524376</v>
       </c>
       <c r="G25">
-        <v>0.6642083143688614</v>
+        <v>0.574526602491429</v>
       </c>
       <c r="H25">
-        <v>12.17935677140289</v>
+        <v>9.040572561376003</v>
       </c>
       <c r="I25">
-        <v>7.390914810329209</v>
+        <v>5.289107739392421</v>
       </c>
       <c r="J25">
-        <v>2.754377148950092</v>
+        <v>1.984996255458839</v>
       </c>
       <c r="K25">
-        <v>17.45349685535815</v>
+        <v>12.91392021001254</v>
       </c>
       <c r="L25">
-        <v>3.534746367272018</v>
+        <v>2.729851529409183</v>
       </c>
       <c r="M25">
-        <v>3.352796767034466</v>
+        <v>2.571106039878849</v>
       </c>
       <c r="N25">
-        <v>0.08772047755059345</v>
+        <v>0.09133289724556332</v>
       </c>
       <c r="O25">
-        <v>0.1788712337481858</v>
+        <v>0.1863161648103956</v>
       </c>
       <c r="P25">
-        <v>0.03745227712247166</v>
+        <v>0.0383233876280201</v>
       </c>
     </row>
   </sheetData>
